--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,45 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>Acompanhamento de Atualização SIF GRU</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
-    <t>Unnamed: 9</t>
-  </si>
-  <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>26/01/2023</t>
-  </si>
-  <si>
-    <t>21:50</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Usuário</t>
+  </si>
+  <si>
+    <t>Qtde RPS</t>
+  </si>
+  <si>
+    <t>Qtde Transmitido</t>
+  </si>
+  <si>
+    <t>Qtde Erro</t>
+  </si>
+  <si>
+    <t>Qtde Transmitir</t>
+  </si>
+  <si>
+    <t>Total Transmitido</t>
+  </si>
+  <si>
+    <t>Total com Erro</t>
+  </si>
+  <si>
+    <t>Total a Transmitir</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>30/01/2023</t>
+  </si>
+  <si>
+    <t>18:41</t>
   </si>
   <si>
     <t>Guilherme</t>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>R$ 331.704,00</t>
+  </si>
+  <si>
+    <t>R$ 6.523.540,31</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>90600</v>
+        <v>96133</v>
       </c>
       <c r="E2">
         <v>90600</v>
@@ -480,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5533</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -489,10 +495,10 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -49,31 +49,52 @@
     <t>Total Geral</t>
   </si>
   <si>
-    <t>30/01/2023</t>
-  </si>
-  <si>
-    <t>18:41</t>
+    <t>Ultima NFSe Rot</t>
+  </si>
+  <si>
+    <t>Ultima NFSe Men PF</t>
+  </si>
+  <si>
+    <t>Ultima NFSe Men PJ</t>
+  </si>
+  <si>
+    <t>Ultima Nfse Selo</t>
+  </si>
+  <si>
+    <t>Ultima Prestação</t>
+  </si>
+  <si>
+    <t>08/02/2023</t>
+  </si>
+  <si>
+    <t>09:53</t>
   </si>
   <si>
     <t>Guilherme</t>
   </si>
   <si>
-    <t>R$ 6.191.836,31</t>
+    <t>R$ 2.152.712,33</t>
   </si>
   <si>
     <t>R$ 0,00</t>
   </si>
   <si>
-    <t>R$ 331.704,00</t>
-  </si>
-  <si>
-    <t>R$ 6.523.540,31</t>
+    <t>R$ 343.460,00</t>
+  </si>
+  <si>
+    <t>R$ 2.496.172,33</t>
+  </si>
+  <si>
+    <t>07/02/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -126,11 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,40 +487,70 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>96133</v>
+        <v>30917</v>
       </c>
       <c r="E2">
-        <v>90600</v>
+        <v>25332</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5533</v>
+        <v>5585</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44964.99996527778</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44960</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44960.49336998843</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44957.72997931713</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Data</t>
   </si>
@@ -64,37 +64,40 @@
     <t>Ultima Prestação</t>
   </si>
   <si>
-    <t>08/02/2023</t>
-  </si>
-  <si>
-    <t>09:53</t>
+    <t>14/02/2023</t>
+  </si>
+  <si>
+    <t>15:33</t>
   </si>
   <si>
     <t>Guilherme</t>
   </si>
   <si>
-    <t>R$ 2.152.712,33</t>
+    <t>R$ 4.193.328,49</t>
   </si>
   <si>
     <t>R$ 0,00</t>
   </si>
   <si>
-    <t>R$ 343.460,00</t>
-  </si>
-  <si>
-    <t>R$ 2.496.172,33</t>
-  </si>
-  <si>
-    <t>07/02/2023</t>
+    <t>2023-02-12 23:59:44</t>
+  </si>
+  <si>
+    <t>2023-02-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-03 11:50:27.167000</t>
+  </si>
+  <si>
+    <t>2023-02-06 11:10:56.400000</t>
+  </si>
+  <si>
+    <t>12/02/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -147,12 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,16 +516,16 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>30917</v>
+        <v>52837</v>
       </c>
       <c r="E2">
-        <v>25332</v>
+        <v>52837</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5585</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -532,25 +534,25 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2">
-        <v>44964.99996527778</v>
-      </c>
-      <c r="M2" s="2">
-        <v>44960</v>
-      </c>
-      <c r="N2" s="2">
-        <v>44960.49336998843</v>
-      </c>
-      <c r="O2" s="2">
-        <v>44957.72997931713</v>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Data</t>
   </si>
@@ -64,34 +64,40 @@
     <t>Ultima Prestação</t>
   </si>
   <si>
-    <t>14/02/2023</t>
-  </si>
-  <si>
-    <t>15:33</t>
+    <t>27/02/2023</t>
+  </si>
+  <si>
+    <t>07:57</t>
   </si>
   <si>
     <t>Guilherme</t>
   </si>
   <si>
-    <t>R$ 4.193.328,49</t>
+    <t>R$ 7.152.446,82</t>
+  </si>
+  <si>
+    <t>R$ 28,00</t>
   </si>
   <si>
     <t>R$ 0,00</t>
   </si>
   <si>
-    <t>2023-02-12 23:59:44</t>
-  </si>
-  <si>
-    <t>2023-02-10 00:00:00</t>
+    <t>R$ 7.152.474,82</t>
+  </si>
+  <si>
+    <t>2023-02-25 23:59:41</t>
+  </si>
+  <si>
+    <t>2023-02-22 00:00:00</t>
   </si>
   <si>
     <t>2023-02-03 11:50:27.167000</t>
   </si>
   <si>
-    <t>2023-02-06 11:10:56.400000</t>
-  </si>
-  <si>
-    <t>12/02/2023</t>
+    <t>2023-02-24 16:02:26.523000</t>
+  </si>
+  <si>
+    <t>Não há registros a serem exibidos.</t>
   </si>
 </sst>
 </file>
@@ -516,13 +522,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>52837</v>
+        <v>88359</v>
       </c>
       <c r="E2">
-        <v>52837</v>
+        <v>88358</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -534,25 +540,25 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
